--- a/New folder/10-2019/02-09-2019.xlsx
+++ b/New folder/10-2019/02-09-2019.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="5040" windowWidth="15360" windowHeight="2505" tabRatio="519" activeTab="2"/>
+    <workbookView xWindow="32760" yWindow="5040" windowWidth="15360" windowHeight="2505" tabRatio="519" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="27" r:id="rId1"/>
@@ -15,11 +15,11 @@
     <sheet name="CCTV" sheetId="34" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Area 04'!$A$1:$K$4</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Area 04'!$A$1:$K$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$L$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Cover!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -383,9 +383,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="181" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
-    <numFmt numFmtId="182" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -995,7 +995,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1100,10 +1100,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1182,6 +1182,9 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,7 +1197,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1203,18 +1206,6 @@
     <xf numFmtId="49" fontId="18" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="16" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="16" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1229,6 +1220,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="16" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1805,19 +1802,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J19" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J19"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Column1" dataDxfId="11"/>
-    <tableColumn id="2" name="Column2" dataDxfId="10"/>
-    <tableColumn id="3" name="Column3" dataDxfId="9"/>
-    <tableColumn id="4" name="Column4" dataDxfId="8"/>
-    <tableColumn id="5" name="Column5" dataDxfId="7"/>
-    <tableColumn id="6" name="Column6" dataDxfId="6"/>
-    <tableColumn id="7" name="Column7" dataDxfId="5"/>
-    <tableColumn id="8" name="Column8" dataDxfId="4"/>
-    <tableColumn id="9" name="Column9" dataDxfId="3"/>
-    <tableColumn id="10" name="Column10" dataDxfId="2"/>
+    <tableColumn id="1" name="Column1" dataDxfId="9"/>
+    <tableColumn id="2" name="Column2" dataDxfId="8"/>
+    <tableColumn id="3" name="Column3" dataDxfId="7"/>
+    <tableColumn id="4" name="Column4" dataDxfId="6"/>
+    <tableColumn id="5" name="Column5" dataDxfId="5"/>
+    <tableColumn id="6" name="Column6" dataDxfId="4"/>
+    <tableColumn id="7" name="Column7" dataDxfId="3"/>
+    <tableColumn id="8" name="Column8" dataDxfId="2"/>
+    <tableColumn id="9" name="Column9" dataDxfId="1"/>
+    <tableColumn id="10" name="Column10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2191,53 +2188,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="31" customFormat="1" ht="24.75" customHeight="1">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
     </row>
     <row r="2" spans="1:13" s="31" customFormat="1" ht="45.75" customHeight="1">
       <c r="A2" s="32"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="B3" s="33"/>
     </row>
     <row r="4" spans="1:13" ht="51" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
       <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="21.75" customHeight="1">
@@ -2256,18 +2253,18 @@
       <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" ht="30">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="1.5" customHeight="1">
@@ -2278,15 +2275,15 @@
     </row>
     <row r="9" spans="1:13" ht="78" customHeight="1">
       <c r="B9" s="2"/>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
     </row>
     <row r="11" spans="1:13" ht="33.75" customHeight="1">
       <c r="B11" s="2" t="s">
@@ -2314,20 +2311,20 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="33.75">
-      <c r="A18" s="64" t="s">
+      <c r="A18" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="B19" s="3"/>
@@ -2588,10 +2585,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K64787"/>
+  <dimension ref="A1:K64786"/>
   <sheetViews>
-    <sheetView topLeftCell="G8" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2623,141 +2620,159 @@
       <c r="G1" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-    </row>
-    <row r="2" spans="1:11" ht="45.75" customHeight="1">
-      <c r="A2" s="71" t="s">
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="2" spans="1:11" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="73" t="s">
+      <c r="I2" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="73" t="s">
+      <c r="J2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="72"/>
-    </row>
-    <row r="4" spans="1:11" s="46" customFormat="1" ht="15.75" thickTop="1">
-      <c r="A4" s="54" t="s">
+    <row r="3" spans="1:11" s="46" customFormat="1" ht="15.75" thickTop="1">
+      <c r="A3" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E3" s="55" t="s">
         <v>81</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="46" customFormat="1" ht="15">
+      <c r="A4" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>80</v>
       </c>
       <c r="F4" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="55" t="s">
+      <c r="H4" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="55" t="s">
+      <c r="I4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="55" t="s">
+      <c r="J4" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="57" t="s">
+      <c r="K4" s="63" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="46" customFormat="1" ht="15">
-      <c r="A5" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62" t="s">
+      <c r="A5" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>80</v>
+      <c r="E5" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="62" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="H5" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="63" t="s">
+      <c r="K5" s="59" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="46" customFormat="1" ht="15">
       <c r="A6" s="58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F6" s="43" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="I6" s="43" t="s">
         <v>42</v>
@@ -2770,8 +2785,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" s="46" customFormat="1" ht="15">
-      <c r="A7" s="58" t="s">
-        <v>48</v>
+      <c r="A7" s="61" t="s">
+        <v>84</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -2779,10 +2794,10 @@
         <v>58</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G7" s="43" t="s">
         <v>65</v>
@@ -2801,8 +2816,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="46" customFormat="1" ht="15">
-      <c r="A8" s="61" t="s">
-        <v>84</v>
+      <c r="A8" s="58" t="s">
+        <v>85</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -2810,7 +2825,7 @@
         <v>58</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>72</v>
@@ -2831,9 +2846,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="46" customFormat="1" ht="15">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="58" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
@@ -2841,30 +2856,30 @@
         <v>58</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F9" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>65</v>
+      <c r="G9" s="50" t="s">
+        <v>93</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="43" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="K9" s="59" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15">
-      <c r="A10" s="58" t="s">
-        <v>54</v>
+      <c r="A10" s="61" t="s">
+        <v>86</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
@@ -2872,16 +2887,16 @@
         <v>58</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="50" t="s">
-        <v>93</v>
+        <v>68</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>94</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I10" s="43" t="s">
         <v>42</v>
@@ -2894,31 +2909,31 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15">
-      <c r="A11" s="61" t="s">
-        <v>86</v>
+      <c r="A11" s="58" t="s">
+        <v>87</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="H11" s="50" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I11" s="43" t="s">
         <v>42</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="K11" s="59" t="s">
         <v>41</v>
@@ -2926,86 +2941,86 @@
     </row>
     <row r="12" spans="1:11" ht="15">
       <c r="A12" s="58" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="43" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="H12" s="50" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I12" s="43" t="s">
         <v>42</v>
       </c>
       <c r="J12" s="43" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="K12" s="59" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15">
-      <c r="A13" s="58" t="s">
-        <v>88</v>
+    <row r="13" spans="1:11" ht="75">
+      <c r="A13" s="61" t="s">
+        <v>89</v>
       </c>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H13" s="50" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I13" s="43" t="s">
         <v>42</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="K13" s="59" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="75">
-      <c r="A14" s="61" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15">
+      <c r="A14" s="58" t="s">
+        <v>90</v>
       </c>
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="43" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I14" s="43" t="s">
         <v>42</v>
@@ -3014,29 +3029,29 @@
         <v>43</v>
       </c>
       <c r="K14" s="59" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15">
       <c r="A15" s="58" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I15" s="43" t="s">
         <v>42</v>
@@ -3049,8 +3064,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15">
-      <c r="A16" s="58" t="s">
-        <v>91</v>
+      <c r="A16" s="61" t="s">
+        <v>104</v>
       </c>
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
@@ -3058,7 +3073,7 @@
         <v>60</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="43" t="s">
         <v>62</v>
@@ -3080,35 +3095,17 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15">
-      <c r="A17" s="61" t="s">
-        <v>104</v>
-      </c>
+      <c r="A17" s="58"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
-      <c r="D17" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="H17" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="59" t="s">
-        <v>59</v>
-      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="59"/>
     </row>
     <row r="18" spans="1:11" ht="15">
       <c r="A18" s="58"/>
@@ -3162,38 +3159,14 @@
       <c r="J21" s="43"/>
       <c r="K21" s="59"/>
     </row>
-    <row r="22" spans="1:11" ht="15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="59"/>
-    </row>
-    <row r="64787" spans="4:4" ht="15">
-      <c r="D64787" s="43" t="s">
+    <row r="64786" spans="4:4" ht="15">
+      <c r="D64786" s="43" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="C2:C3"/>
+  <mergeCells count="1">
     <mergeCell ref="H1:K1"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="41" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3204,10 +3177,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -3236,97 +3209,115 @@
         <v>61</v>
       </c>
       <c r="H1" s="51"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:11" ht="46.5" hidden="1" customHeight="1">
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A3" s="71" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="71" t="s">
+      <c r="I3" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="77" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="42.75" customHeight="1" thickBot="1">
-      <c r="A4" s="72"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickTop="1">
-      <c r="A5" s="54" t="s">
+    <row r="4" spans="1:11" ht="15.75" thickTop="1">
+      <c r="A4" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E4" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="55" t="s">
+      <c r="F4" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G4" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H4" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I4" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J4" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="K5" s="57" t="s">
+      <c r="K4" s="57" t="s">
         <v>41</v>
       </c>
     </row>
+    <row r="5" spans="1:11" ht="15">
+      <c r="A5" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="6" spans="1:11" ht="15">
-      <c r="A6" s="58" t="s">
-        <v>46</v>
+      <c r="A6" s="58">
+        <v>3</v>
       </c>
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
@@ -3334,7 +3325,7 @@
         <v>57</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F6" s="43" t="s">
         <v>53</v>
@@ -3357,7 +3348,7 @@
     </row>
     <row r="7" spans="1:11" ht="15">
       <c r="A7" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
@@ -3365,7 +3356,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>53</v>
@@ -3388,7 +3379,7 @@
     </row>
     <row r="8" spans="1:11" ht="15">
       <c r="A8" s="58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
@@ -3396,7 +3387,7 @@
         <v>57</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F8" s="43" t="s">
         <v>53</v>
@@ -3417,83 +3408,41 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="58">
-        <v>5</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="F9" s="43" t="s">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1">
+      <c r="A9" s="60">
+        <v>6</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="43" t="s">
+      <c r="I9" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="59" t="s">
+      <c r="K9" s="53" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" s="60">
-        <v>6</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="13.5" thickTop="1"/>
+    <row r="10" spans="1:11" ht="13.5" thickTop="1"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
+  <mergeCells count="1">
     <mergeCell ref="I1:K2"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -3810,57 +3759,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="89.25" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="74" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="42.75" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="43"/>
@@ -3897,17 +3846,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
